--- a/JH_ZIM-Papier_MCreator_Mod_ersteleln_minecraft.xlsx
+++ b/JH_ZIM-Papier_MCreator_Mod_ersteleln_minecraft.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">Wer?</t>
   </si>
   <si>
-    <t xml:space="preserve">Laptop, Maus, Internet</t>
+    <t xml:space="preserve">Laptop, Maus, Internet, Beamer</t>
   </si>
   <si>
     <t xml:space="preserve">15 min</t>
@@ -113,19 +113,19 @@
     <t xml:space="preserve">Programmieren in Mcreator</t>
   </si>
   <si>
-    <t xml:space="preserve">selber machen+ tüfteln / gruppenarbeit, Individuelle Hilfe</t>
+    <t xml:space="preserve">selber machen+ tüfteln / Gruppenarbeit, individuelle Hilfe</t>
   </si>
   <si>
     <t xml:space="preserve">10 – 15 min</t>
   </si>
   <si>
-    <t xml:space="preserve">Fragen klären</t>
+    <t xml:space="preserve">Fragen klären, Feedback</t>
   </si>
   <si>
     <t xml:space="preserve">Abschluss</t>
   </si>
   <si>
-    <t xml:space="preserve">Präsentation der Ergebnisse, Fragen</t>
+    <t xml:space="preserve">Präsentation der Ergebnisse, Fragen, Feedback</t>
   </si>
   <si>
     <t xml:space="preserve">Dieses Dokument ist Teil eines OER-Workshops von Jugend hackt. Alle Materialien online auf https://jugendhackt.org/oer/projekte/inkscape/ </t>
@@ -430,7 +430,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -454,7 +454,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -579,7 +579,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18308880" y="0"/>
+          <a:off x="17315280" y="0"/>
           <a:ext cx="1770840" cy="828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -603,7 +603,7 @@
   <dimension ref="A1:AQF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,7 +615,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="67.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="37.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="13.52"/>
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
         <v>3</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
     </row>
-    <row r="7" s="31" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="31" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="n">
         <v>4</v>
       </c>
